--- a/data/output/Pedidos_semanales_resumen/Resumen_Pedidos_CONSOLIDADO_26022026.xlsx
+++ b/data/output/Pedidos_semanales_resumen/Resumen_Pedidos_CONSOLIDADO_26022026.xlsx
@@ -489,7 +489,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>RESUMEN DE PEDIDOS DE COMPRA - CONSOLIDADO - VIVERO ARANJUEZ 2026</t>
+          <t>RESUMEN DE PEDIDOS DE COMPRA - CONSOLIDADO - VIVEVERDE 2026</t>
         </is>
       </c>
     </row>
@@ -935,19 +935,19 @@
         <v>5</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>2079</v>
+        <v>2052</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>38.3</v>
+        <v>37.8</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M9" s="3" t="n">
         <v>19</v>
@@ -962,7 +962,7 @@
         <v>30</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
